--- a/dazhi_network_setting/測試用活頁簿.xlsx
+++ b/dazhi_network_setting/測試用活頁簿.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/dazhi_network_setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E98ED26-F1E6-4DC0-9633-2FC853B62CBC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13548" windowHeight="8964" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王曉華</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +47,18 @@
   </si>
   <si>
     <t>張詩美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生/教師姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學號/教師代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬班級/單位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968079-CF20-4DDE-BC23-4EA570804A9E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -446,18 +446,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>14456211</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>477784632</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>25478841</v>

--- a/dazhi_network_setting/測試用活頁簿.xlsx
+++ b/dazhi_network_setting/測試用活頁簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/dazhi_network_setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E98ED26-F1E6-4DC0-9633-2FC853B62CBC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FA57C8-902E-4348-B381-7B6B83B5F8B9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13548" windowHeight="8964" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>王曉華</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>所屬班級/單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為仲良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968079-CF20-4DDE-BC23-4EA570804A9E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,6 +498,17 @@
       </c>
       <c r="C4">
         <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20230619</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dazhi_network_setting/測試用活頁簿.xlsx
+++ b/dazhi_network_setting/測試用活頁簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/dazhi_network_setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FA57C8-902E-4348-B381-7B6B83B5F8B9}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B6A9E3-F2A2-452F-8E78-D32FBB7C4499}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>王曉華</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>資訊組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教務處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dicky Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學務處</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968079-CF20-4DDE-BC23-4EA570804A9E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -511,6 +527,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>20418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>789456123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dazhi_network_setting/測試用活頁簿.xlsx
+++ b/dazhi_network_setting/測試用活頁簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/dazhi_network_setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B6A9E3-F2A2-452F-8E78-D32FBB7C4499}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1684FB-FF74-493F-BEBA-C7757202F126}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="8964" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>王曉華</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教務處</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,22 @@
   </si>
   <si>
     <t>學務處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃信雄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,10 +170,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968079-CF20-4DDE-BC23-4EA570804A9E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -488,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14456211</v>
-      </c>
-      <c r="C2">
-        <v>204</v>
+        <v>11058856</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>477784632</v>
-      </c>
-      <c r="C3">
-        <v>204</v>
+        <v>11030483</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25478841</v>
-      </c>
-      <c r="C4">
-        <v>205</v>
+        <v>11032560</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -529,24 +537,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>20418</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>19360921</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>789456123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>19420618</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
